--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilkommen\Desktop\2-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif Wasefi\Desktop\Project\Scientific-Project-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA330A7-2E40-4BA1-82D0-0D4E885EF1F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>willy loockx</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1056,23 +1055,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1108,23 +1090,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1300,11 +1265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="15">
-        <v>43333</v>
+        <v>43152</v>
       </c>
       <c r="G10" s="15">
         <v>43159</v>
@@ -1547,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="15">
-        <v>43333</v>
+        <v>43152</v>
       </c>
       <c r="G11" s="15">
         <v>43159</v>
@@ -1581,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="15">
-        <v>43333</v>
+        <v>43152</v>
       </c>
       <c r="G12" s="15">
         <v>43159</v>
@@ -1615,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="15">
-        <v>43333</v>
+        <v>43152</v>
       </c>
       <c r="G13" s="15">
         <v>43159</v>
@@ -1649,7 +1614,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="15">
-        <v>43333</v>
+        <v>43152</v>
       </c>
       <c r="G14" s="15">
         <v>43159</v>
@@ -3093,41 +3058,41 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M37" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M38" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M40" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M42" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M45" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M57" r:id="rId28" xr:uid="{B8C7F142-84E3-4D0D-BD0D-9F6E5722F8B4}"/>
-    <hyperlink ref="O58" r:id="rId29" xr:uid="{542AB9A3-8E24-4AA4-9B52-BB153734E034}"/>
-    <hyperlink ref="O59" r:id="rId30" xr:uid="{B38662C8-99A5-42C6-891F-B496448CF7F1}"/>
-    <hyperlink ref="O60" r:id="rId31" xr:uid="{31570624-6AAC-4B1A-AF11-1F7FD57B37C9}"/>
-    <hyperlink ref="D72" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D73" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D74" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D75" r:id="rId35" xr:uid="{405A3BCA-3F1E-45EF-ADE5-D175F4FB4F28}"/>
+    <hyperlink ref="M10" r:id="rId1"/>
+    <hyperlink ref="M11" r:id="rId2"/>
+    <hyperlink ref="M12" r:id="rId3"/>
+    <hyperlink ref="M13" r:id="rId4"/>
+    <hyperlink ref="M18" r:id="rId5"/>
+    <hyperlink ref="M19" r:id="rId6"/>
+    <hyperlink ref="M20" r:id="rId7"/>
+    <hyperlink ref="M21" r:id="rId8"/>
+    <hyperlink ref="M17" r:id="rId9"/>
+    <hyperlink ref="M24" r:id="rId10"/>
+    <hyperlink ref="M26" r:id="rId11"/>
+    <hyperlink ref="M27" r:id="rId12"/>
+    <hyperlink ref="M28" r:id="rId13"/>
+    <hyperlink ref="M25" r:id="rId14"/>
+    <hyperlink ref="N27" r:id="rId15"/>
+    <hyperlink ref="M31" r:id="rId16"/>
+    <hyperlink ref="M32" r:id="rId17"/>
+    <hyperlink ref="M33" r:id="rId18"/>
+    <hyperlink ref="M34" r:id="rId19"/>
+    <hyperlink ref="M37" r:id="rId20"/>
+    <hyperlink ref="M38" r:id="rId21"/>
+    <hyperlink ref="M39" r:id="rId22"/>
+    <hyperlink ref="M40" r:id="rId23"/>
+    <hyperlink ref="M41" r:id="rId24"/>
+    <hyperlink ref="M42" r:id="rId25"/>
+    <hyperlink ref="M46" r:id="rId26"/>
+    <hyperlink ref="M45" r:id="rId27"/>
+    <hyperlink ref="M57" r:id="rId28"/>
+    <hyperlink ref="O58" r:id="rId29"/>
+    <hyperlink ref="O59" r:id="rId30"/>
+    <hyperlink ref="O60" r:id="rId31"/>
+    <hyperlink ref="D72" r:id="rId32"/>
+    <hyperlink ref="D73" r:id="rId33"/>
+    <hyperlink ref="D74" r:id="rId34"/>
+    <hyperlink ref="D75" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
@@ -3136,7 +3101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3148,7 +3113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif Wasefi\Desktop\Project\Scientific-Project-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif Wasefi\Documents\GitHub\Scientific-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
   <si>
     <t>startdatum</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Blockchain data security</t>
   </si>
   <si>
-    <t>Satish singh</t>
-  </si>
-  <si>
     <t>Ali Amir</t>
   </si>
   <si>
@@ -314,21 +311,12 @@
     <t>WiFi vs other communications</t>
   </si>
   <si>
-    <t>Daniel Smetakin</t>
-  </si>
-  <si>
-    <t>Gauthier De Borrekens</t>
-  </si>
-  <si>
     <t>Theoretical Check</t>
   </si>
   <si>
     <t>Pracitcal work</t>
   </si>
   <si>
-    <t>Asif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poster </t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Satish</t>
-  </si>
-  <si>
     <t>Correction</t>
   </si>
   <si>
@@ -362,33 +347,6 @@
     <t>extreme fine tuning</t>
   </si>
   <si>
-    <t>2-Daniel-Connection</t>
-  </si>
-  <si>
-    <t>2-Gauthier-NodeMCU</t>
-  </si>
-  <si>
-    <t>2-Satish-Car</t>
-  </si>
-  <si>
-    <t>1-Gauthier-Levitation</t>
-  </si>
-  <si>
-    <t>1-Satish-RcCars</t>
-  </si>
-  <si>
-    <t>1-Ali-SmartRoom</t>
-  </si>
-  <si>
-    <t>1-Daniel-RFID</t>
-  </si>
-  <si>
-    <t>2-Ali-RadioControl</t>
-  </si>
-  <si>
-    <t>2-Asif-Server</t>
-  </si>
-  <si>
     <t>Weekly Reports</t>
   </si>
   <si>
@@ -398,27 +356,6 @@
     <t>Report1</t>
   </si>
   <si>
-    <t>Daniel Smetakin, Satish</t>
-  </si>
-  <si>
-    <t>3_Satish_RCCarVsOtherCars</t>
-  </si>
-  <si>
-    <t>3_Daniel_different_comm_protocols</t>
-  </si>
-  <si>
-    <t>3_Asif_Server_OS_comparison</t>
-  </si>
-  <si>
-    <t>3_Gauthier_Different-Microcontrollers</t>
-  </si>
-  <si>
-    <t>3_Ali_NodeMCU-programming</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
     <t>Week2 (07/03/2018)</t>
   </si>
   <si>
@@ -437,33 +374,15 @@
     <t>Server Software, connection with nodeMCU</t>
   </si>
   <si>
-    <t>Gauthier,</t>
-  </si>
-  <si>
     <t>Send UDP packet to other devices Ubuntu</t>
   </si>
   <si>
     <t>Report3</t>
   </si>
   <si>
-    <t>4 Asif Server_connection_nodeMCU</t>
-  </si>
-  <si>
     <t>Voltage stabilizer</t>
   </si>
   <si>
-    <t>Gauthier</t>
-  </si>
-  <si>
-    <t>4 Daniel WP_Motor_Programming</t>
-  </si>
-  <si>
-    <t>4 Gauthier21_03 ESP8266 Programming</t>
-  </si>
-  <si>
-    <t>4 Ali NodeMCU-UDP</t>
-  </si>
-  <si>
     <t>Microcontroller Software: SR04</t>
   </si>
   <si>
@@ -476,45 +395,24 @@
     <t>Integration H-bridge into motor programming</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>Statistics of measurements</t>
   </si>
   <si>
     <t>Are all the voltages of the components correct</t>
   </si>
   <si>
-    <t>5-Asif Measuring UDP latency</t>
-  </si>
-  <si>
-    <t>5-Gauthier sonar ranging module</t>
-  </si>
-  <si>
     <t>5-CurrentsAndVoltages-SS-AA</t>
   </si>
   <si>
     <t>5-poweringOfNodeMCU-SS</t>
   </si>
   <si>
-    <t>5-WP_Motor_Programming_Daniel_SmetankinV2</t>
-  </si>
-  <si>
-    <t>AliAmir PosterProposition</t>
-  </si>
-  <si>
-    <t>Asif How to make a scientific poster</t>
-  </si>
-  <si>
     <t>212/03/2018</t>
   </si>
   <si>
     <t>Afterwork</t>
   </si>
   <si>
-    <t>Actualisation + information poster</t>
-  </si>
-  <si>
     <t>Software updates</t>
   </si>
   <si>
@@ -551,17 +449,104 @@
     <t>Administration</t>
   </si>
   <si>
-    <t>Ali,Satish</t>
-  </si>
-  <si>
-    <t>Gauthier,Asif</t>
+    <t>Poster concept</t>
+  </si>
+  <si>
+    <t>1-Satish Singh-RcCars</t>
+  </si>
+  <si>
+    <t>2-Satish Singh-Car</t>
+  </si>
+  <si>
+    <t>3_Satish Singh_RCCarVsOtherCars</t>
+  </si>
+  <si>
+    <t>1-Daniel Smetankin-RFID</t>
+  </si>
+  <si>
+    <t>2-Daniel Smetankin-Connection</t>
+  </si>
+  <si>
+    <t>Daniel Smetankin Smetakin</t>
+  </si>
+  <si>
+    <t>3_Daniel Smetankin_different_comm_protocols</t>
+  </si>
+  <si>
+    <t>Daniel Smetankin Smetakin, Satish Singh</t>
+  </si>
+  <si>
+    <t>4 Daniel Smetankin WP_Motor_Programming</t>
+  </si>
+  <si>
+    <t>5-WP_Motor_Programming_Daniel Smetankin_SmetankinV2</t>
+  </si>
+  <si>
+    <t>1-Gauthier de Borrekens-Levitation</t>
+  </si>
+  <si>
+    <t>2-Gauthier de Borrekens-NodeMCU</t>
+  </si>
+  <si>
+    <t>3_Gauthier de Borrekens_Different-Microcontrollers</t>
+  </si>
+  <si>
+    <t>Gauthier de Borrekens,</t>
+  </si>
+  <si>
+    <t>4 Gauthier de Borrekens21_03 ESP8266 Programming</t>
+  </si>
+  <si>
+    <t>5-Gauthier de Borrekens sonar ranging module</t>
+  </si>
+  <si>
+    <t>2-Asif Wasefi-Server</t>
+  </si>
+  <si>
+    <t>3_Asif Wasefi_Server_OS_comparison</t>
+  </si>
+  <si>
+    <t>4 Asif Wasefi Server_connection_nodeMCU</t>
+  </si>
+  <si>
+    <t>5-Asif Wasefi Measuring UDP latency</t>
+  </si>
+  <si>
+    <t>Asif Wasefi, Satish Singh</t>
+  </si>
+  <si>
+    <t>1-Ali Amir-SmartRoom</t>
+  </si>
+  <si>
+    <t>2-Ali Amir-RadioControl</t>
+  </si>
+  <si>
+    <t>3_Ali Amir_NodeMCU-programming</t>
+  </si>
+  <si>
+    <t>4 Ali Amir NodeMCU-UDP</t>
+  </si>
+  <si>
+    <t>ActuAli Amirsation + information poster</t>
+  </si>
+  <si>
+    <t>Ali Amir,Satish Singh</t>
+  </si>
+  <si>
+    <t>Gauthier de Borrekens, Asif Wasefi</t>
+  </si>
+  <si>
+    <t>6-Ali Amir PosterProposition</t>
+  </si>
+  <si>
+    <t>6-Asif Wasefi How to make a scientific poster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,14 +613,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -812,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,23 +853,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -903,15 +880,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,24 +887,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,6 +924,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3333FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1266,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P75"/>
+  <dimension ref="B1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,35 +1241,35 @@
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="50.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,27 +1289,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1371,38 +1332,38 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1464,7 +1425,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -1486,20 +1447,20 @@
       <c r="H10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="39">
         <v>43333</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="39">
         <v>43159</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
@@ -1518,22 +1479,22 @@
         <v>43159</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="43">
+        <v>30</v>
+      </c>
+      <c r="I11" s="39">
         <v>43333</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="39">
         <v>43159</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="25">
@@ -1552,22 +1513,22 @@
         <v>43159</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="43">
+        <v>37</v>
+      </c>
+      <c r="I12" s="39">
         <v>43333</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="39">
         <v>43159</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
@@ -1588,20 +1549,20 @@
       <c r="H13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="39">
         <v>43333</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="39">
         <v>43159</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
@@ -1620,19 +1581,19 @@
         <v>43159</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="43">
+        <v>38</v>
+      </c>
+      <c r="I14" s="39">
         <v>43333</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="39">
         <v>43159</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -1641,13 +1602,13 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="24"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="41"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="35"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
@@ -1661,19 +1622,19 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="37"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>21</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -1688,27 +1649,27 @@
       <c r="H17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="39">
         <v>43159</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="39">
         <v>43166</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L17" s="24"/>
-      <c r="M17" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="48"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>22</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -1723,27 +1684,27 @@
       <c r="H18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="39">
         <v>43159</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="39">
         <v>43166</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L18" s="24"/>
-      <c r="M18" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>23</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -1758,27 +1719,27 @@
       <c r="H19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="39">
         <v>43159</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="39">
         <v>43166</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L19" s="24"/>
-      <c r="M19" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>24</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -1791,29 +1752,29 @@
         <v>43166</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="42">
+        <v>37</v>
+      </c>
+      <c r="I20" s="39">
         <v>43159</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="39">
         <v>43166</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" s="24"/>
-      <c r="M20" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>25</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -1826,59 +1787,60 @@
         <v>43166</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="42">
+        <v>38</v>
+      </c>
+      <c r="I21" s="39">
         <v>43159</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="39">
         <v>43166</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="24"/>
-      <c r="M21" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="22"/>
       <c r="E22" s="5"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="1"/>
       <c r="L22" s="24"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="1"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="25">
         <v>27</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>41</v>
+      <c r="D24" t="s">
+        <v>40</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>13</v>
@@ -1890,29 +1852,29 @@
         <v>43173</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="43">
+        <v>97</v>
+      </c>
+      <c r="I24" s="39">
         <v>43166</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="39">
         <v>43173</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <v>28</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>42</v>
+      <c r="D25" t="s">
+        <v>41</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>13</v>
@@ -1924,29 +1886,29 @@
         <v>43173</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="43">
+        <v>29</v>
+      </c>
+      <c r="I25" s="39">
         <v>43166</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="39">
         <v>43173</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
         <v>29</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>43</v>
+      <c r="D26" t="s">
+        <v>42</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>13</v>
@@ -1960,27 +1922,27 @@
       <c r="H26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="39">
         <v>43166</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="39">
         <v>43173</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>30</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>44</v>
+      <c r="D27" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>13</v>
@@ -1992,31 +1954,31 @@
         <v>43173</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="43">
+        <v>38</v>
+      </c>
+      <c r="I27" s="39">
         <v>43166</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="39">
         <v>43173</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>31</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>45</v>
+      <c r="D28" t="s">
+        <v>44</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>13</v>
@@ -2028,64 +1990,62 @@
         <v>43173</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="43">
+        <v>37</v>
+      </c>
+      <c r="I28" s="39">
         <v>43166</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="39">
         <v>43173</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="44" t="s">
-        <v>78</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="40" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="21"/>
       <c r="E29" s="5"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="14"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
+      <c r="O29" s="40"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>32</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>45</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="24"/>
       <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="40"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>33</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>86</v>
+      <c r="D31" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>13</v>
@@ -2097,30 +2057,30 @@
         <v>43180</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="42">
+        <v>38</v>
+      </c>
+      <c r="I31" s="39">
         <v>43173</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="39">
         <v>43180</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>50</v>
+      <c r="K31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L31" s="24"/>
-      <c r="M31" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="40" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>34</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>98</v>
+      <c r="D32" t="s">
+        <v>71</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>13</v>
@@ -2132,30 +2092,30 @@
         <v>43180</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="42">
+        <v>99</v>
+      </c>
+      <c r="I32" s="39">
         <v>43173</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="39">
         <v>43180</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>46</v>
+      <c r="K32" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L32" s="24"/>
-      <c r="M32" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="40" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>35</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>85</v>
+      <c r="D33" t="s">
+        <v>64</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>13</v>
@@ -2167,27 +2127,27 @@
         <v>43180</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="42">
+        <v>105</v>
+      </c>
+      <c r="I33" s="39">
         <v>43173</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="39">
         <v>43180</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>92</v>
+      <c r="K33" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="L33" s="24"/>
-      <c r="M33" s="46" t="s">
-        <v>94</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="O33" s="40" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D34" s="22" t="s">
-        <v>88</v>
+      <c r="D34" t="s">
+        <v>66</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>13</v>
@@ -2199,27 +2159,27 @@
         <v>43180</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="42">
+        <v>37</v>
+      </c>
+      <c r="I34" s="39">
         <v>43173</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="39">
         <v>43180</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>80</v>
+      <c r="K34" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L34" s="24"/>
-      <c r="M34" s="46" t="s">
-        <v>95</v>
-      </c>
+      <c r="M34" s="40"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+      <c r="O34" s="40" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D35" s="22" t="s">
-        <v>91</v>
+      <c r="D35" t="s">
+        <v>68</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>13</v>
@@ -2233,46 +2193,45 @@
       <c r="H35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="39">
         <v>43173</v>
       </c>
-      <c r="J35" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>56</v>
+      <c r="J35" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="L35" s="24"/>
-      <c r="M35" s="14"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="O35" s="40"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="21"/>
+        <v>46</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="14"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="O36" s="40"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>37</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>97</v>
+      <c r="D37" t="s">
+        <v>70</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>13</v>
@@ -2284,30 +2243,30 @@
         <v>43187</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="47">
+        <v>38</v>
+      </c>
+      <c r="I37" s="39">
         <v>43180</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J37" s="39">
         <v>43187</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>50</v>
+      <c r="K37" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L37" s="5"/>
-      <c r="M37" s="48" t="s">
-        <v>103</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
+      <c r="O37" s="40" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
         <v>38</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>96</v>
+      <c r="D38" t="s">
+        <v>69</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>13</v>
@@ -2319,31 +2278,31 @@
         <v>43187</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="47">
+        <v>29</v>
+      </c>
+      <c r="I38" s="39">
         <v>43180</v>
       </c>
-      <c r="J38" s="47">
+      <c r="J38" s="39">
         <v>43187</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>92</v>
+      <c r="K38" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="M38" s="48" t="s">
-        <v>104</v>
-      </c>
+      <c r="M38" s="40"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="O38" s="40" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
         <v>39</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="21" t="s">
-        <v>101</v>
+      <c r="D39" t="s">
+        <v>73</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>13</v>
@@ -2355,30 +2314,30 @@
         <v>43187</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="47">
+        <v>37</v>
+      </c>
+      <c r="I39" s="39">
         <v>43180</v>
       </c>
-      <c r="J39" s="47">
+      <c r="J39" s="39">
         <v>43187</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>80</v>
+      <c r="K39" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L39" s="5"/>
-      <c r="M39" s="48" t="s">
-        <v>105</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
+      <c r="O39" s="40" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
         <v>40</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>102</v>
+      <c r="D40" t="s">
+        <v>74</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>13</v>
@@ -2392,25 +2351,25 @@
       <c r="H40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="39">
         <v>43180</v>
       </c>
-      <c r="J40" s="47">
+      <c r="J40" s="39">
         <v>43187</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="5"/>
-      <c r="M40" s="48" t="s">
-        <v>105</v>
-      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
+      <c r="O40" s="40" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="22" t="s">
-        <v>91</v>
+      <c r="D41" t="s">
+        <v>68</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>13</v>
@@ -2424,25 +2383,25 @@
       <c r="H41" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="39">
         <v>43180</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="39">
         <v>43187</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L41" s="5"/>
-      <c r="M41" s="48" t="s">
-        <v>106</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
+      <c r="O41" s="40" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D42" s="22" t="s">
-        <v>99</v>
+      <c r="D42" t="s">
+        <v>72</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>13</v>
@@ -2454,44 +2413,47 @@
         <v>43187</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="47">
+        <v>28</v>
+      </c>
+      <c r="I42" s="39">
         <v>43180</v>
       </c>
-      <c r="J42" s="47">
+      <c r="J42" s="39">
         <v>43187</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>100</v>
+      <c r="K42" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="48" t="s">
-        <v>107</v>
-      </c>
+      <c r="M42" s="40"/>
       <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
+      <c r="O42" s="40" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
         <v>50</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="1"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="40"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>13</v>
@@ -2503,17 +2465,18 @@
         <v>43208</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="15">
+        <v>49</v>
+      </c>
+      <c r="I44" s="39">
         <v>43201</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="39">
         <v>43208</v>
       </c>
+      <c r="K44" s="1"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" s="40"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E45" s="16" t="s">
@@ -2526,20 +2489,20 @@
         <v>43208</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="I45" s="15">
+      <c r="I45" s="39">
         <v>43201</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="39">
         <v>43208</v>
       </c>
-      <c r="K45" t="s">
-        <v>50</v>
-      </c>
-      <c r="M45" s="44" t="s">
-        <v>109</v>
-      </c>
+      <c r="K45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" s="40" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E46" s="16" t="s">
@@ -2552,20 +2515,20 @@
         <v>43208</v>
       </c>
       <c r="H46" s="15"/>
-      <c r="I46" s="15">
+      <c r="I46" s="39">
         <v>43201</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="39">
         <v>43208</v>
       </c>
-      <c r="K46" t="s">
-        <v>80</v>
-      </c>
-      <c r="M46" s="44" t="s">
-        <v>108</v>
-      </c>
+      <c r="K46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" s="40"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" s="40" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
@@ -2578,14 +2541,14 @@
         <v>43208</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="15">
+      <c r="I47" s="39">
         <v>43201</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="39">
         <v>43208</v>
       </c>
-      <c r="K47" t="s">
-        <v>56</v>
+      <c r="K47" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -2595,6 +2558,8 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -2604,11 +2569,13 @@
         <v>52</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2618,7 +2585,7 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="15">
@@ -2628,6 +2595,8 @@
         <v>43215</v>
       </c>
       <c r="H50" s="15"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2637,7 +2606,7 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="15">
@@ -2647,6 +2616,8 @@
         <v>43215</v>
       </c>
       <c r="H51" s="15"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2656,7 +2627,7 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="15">
@@ -2666,6 +2637,8 @@
         <v>43215</v>
       </c>
       <c r="H52" s="15"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -2675,7 +2648,7 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="15">
@@ -2685,6 +2658,8 @@
         <v>43215</v>
       </c>
       <c r="H53" s="15"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -2693,6 +2668,8 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -2702,11 +2679,13 @@
         <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -2715,7 +2694,12 @@
       <c r="B56" s="25">
         <v>58</v>
       </c>
-      <c r="E56" s="17"/>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F56" s="15">
         <v>43215</v>
       </c>
@@ -2723,6 +2707,15 @@
         <v>43222</v>
       </c>
       <c r="H56" s="15"/>
+      <c r="I56" s="39">
+        <v>43215</v>
+      </c>
+      <c r="J56" s="39">
+        <v>43222</v>
+      </c>
+      <c r="K56" t="s">
+        <v>112</v>
+      </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -2732,7 +2725,7 @@
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>13</v>
@@ -2744,27 +2737,27 @@
         <v>43222</v>
       </c>
       <c r="H57" s="15"/>
-      <c r="I57" s="43">
+      <c r="I57" s="39">
         <v>43215</v>
       </c>
-      <c r="J57" s="43">
+      <c r="J57" s="39">
         <v>43222</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
-      </c>
-      <c r="M57" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="25">
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>13</v>
@@ -2776,24 +2769,24 @@
         <v>43222</v>
       </c>
       <c r="H58" s="15"/>
-      <c r="I58" s="43">
+      <c r="I58" s="39">
         <v>43215</v>
       </c>
-      <c r="J58" s="43">
+      <c r="J58" s="39">
         <v>43222</v>
       </c>
       <c r="K58" t="s">
-        <v>80</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="44" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>13</v>
@@ -2805,77 +2798,68 @@
         <v>43222</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="43">
+      <c r="I59" s="39">
         <v>43215</v>
       </c>
-      <c r="J59" s="43">
+      <c r="J59" s="39">
         <v>43222</v>
       </c>
       <c r="K59" t="s">
-        <v>92</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="44" t="s">
-        <v>119</v>
+        <v>29</v>
+      </c>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
-        <v>61</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
-      <c r="I60" s="43">
-        <v>43215</v>
-      </c>
-      <c r="J60" s="43">
-        <v>43222</v>
-      </c>
-      <c r="K60" t="s">
-        <v>100</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="44" t="s">
-        <v>120</v>
-      </c>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="25">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="15">
+        <v>86</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="39">
+        <v>43215</v>
+      </c>
+      <c r="J61" s="39">
         <v>43222</v>
       </c>
-      <c r="G61" s="15">
-        <v>43229</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="25">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="15">
@@ -2885,16 +2869,16 @@
         <v>43229</v>
       </c>
       <c r="H62" s="15"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="25">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="15">
@@ -2909,20 +2893,25 @@
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="B64" s="25">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G64" s="15">
+        <v>43229</v>
+      </c>
       <c r="H64" s="15"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="25">
-        <v>65</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -2932,31 +2921,24 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="25">
-        <v>66</v>
-      </c>
-      <c r="D66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="15">
-        <v>43229</v>
-      </c>
-      <c r="G66" s="15">
-        <v>43236</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>126</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="25">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="15">
@@ -2966,7 +2948,7 @@
         <v>43236</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -2974,10 +2956,10 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="25">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="15">
@@ -2987,62 +2969,83 @@
         <v>43236</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="25">
+        <v>68</v>
+      </c>
       <c r="D69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69" s="43">
+        <v>89</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="15">
         <v>43229</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="15">
         <v>43236</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" s="43"/>
+      <c r="H69" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G70" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>73</v>
-      </c>
+      <c r="C72" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="39"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>82</v>
+        <v>58</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C75" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>116</v>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C76" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3058,41 +3061,41 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1"/>
-    <hyperlink ref="M11" r:id="rId2"/>
-    <hyperlink ref="M12" r:id="rId3"/>
-    <hyperlink ref="M13" r:id="rId4"/>
-    <hyperlink ref="M18" r:id="rId5"/>
-    <hyperlink ref="M19" r:id="rId6"/>
-    <hyperlink ref="M20" r:id="rId7"/>
-    <hyperlink ref="M21" r:id="rId8"/>
-    <hyperlink ref="M17" r:id="rId9"/>
-    <hyperlink ref="M24" r:id="rId10"/>
-    <hyperlink ref="M26" r:id="rId11"/>
-    <hyperlink ref="M27" r:id="rId12"/>
-    <hyperlink ref="M28" r:id="rId13"/>
-    <hyperlink ref="M25" r:id="rId14"/>
+    <hyperlink ref="O10" r:id="rId1" display="1-Gauthier-Levitation"/>
+    <hyperlink ref="O11" r:id="rId2" display="1-Satish-RcCars"/>
+    <hyperlink ref="O12" r:id="rId3" display="1-Ali-SmartRoom"/>
+    <hyperlink ref="O13" r:id="rId4" display="1-Daniel-RFID"/>
+    <hyperlink ref="O18" r:id="rId5" display="2-Gauthier-NodeMCU"/>
+    <hyperlink ref="O19" r:id="rId6" display="2-Satish-Car"/>
+    <hyperlink ref="O20" r:id="rId7" display="2-Ali-RadioControl"/>
+    <hyperlink ref="O21" r:id="rId8" display="2-Asif-Server"/>
+    <hyperlink ref="O17" r:id="rId9" display="2-Daniel-Connection"/>
+    <hyperlink ref="O24" r:id="rId10" display="3_Daniel_different_comm_protocols"/>
+    <hyperlink ref="O26" r:id="rId11" display="3_Satish_RCCarVsOtherCars"/>
+    <hyperlink ref="O27" r:id="rId12" display="3_Asif_Server_OS_comparison"/>
+    <hyperlink ref="O28" r:id="rId13" display="3_Gauthier_Different-Microcontrollers"/>
+    <hyperlink ref="O25" r:id="rId14" display="3_Ali_NodeMCU-programming"/>
     <hyperlink ref="N27" r:id="rId15"/>
-    <hyperlink ref="M31" r:id="rId16"/>
-    <hyperlink ref="M32" r:id="rId17"/>
-    <hyperlink ref="M33" r:id="rId18"/>
-    <hyperlink ref="M34" r:id="rId19"/>
-    <hyperlink ref="M37" r:id="rId20"/>
-    <hyperlink ref="M38" r:id="rId21"/>
-    <hyperlink ref="M39" r:id="rId22"/>
-    <hyperlink ref="M40" r:id="rId23"/>
-    <hyperlink ref="M41" r:id="rId24"/>
-    <hyperlink ref="M42" r:id="rId25"/>
-    <hyperlink ref="M46" r:id="rId26"/>
-    <hyperlink ref="M45" r:id="rId27"/>
-    <hyperlink ref="M57" r:id="rId28"/>
-    <hyperlink ref="O58" r:id="rId29"/>
-    <hyperlink ref="O59" r:id="rId30"/>
-    <hyperlink ref="O60" r:id="rId31"/>
-    <hyperlink ref="D72" r:id="rId32"/>
-    <hyperlink ref="D73" r:id="rId33"/>
-    <hyperlink ref="D74" r:id="rId34"/>
-    <hyperlink ref="D75" r:id="rId35"/>
+    <hyperlink ref="O31" r:id="rId16" display="4 Asif Server_connection_nodeMCU"/>
+    <hyperlink ref="O32" r:id="rId17" display="4 Daniel WP_Motor_Programming"/>
+    <hyperlink ref="O33" r:id="rId18" display="4 Gauthier21_03 ESP8266 Programming"/>
+    <hyperlink ref="O34" r:id="rId19" display="4 Ali NodeMCU-UDP"/>
+    <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency"/>
+    <hyperlink ref="O38" r:id="rId21" display="5-Gauthier sonar ranging module"/>
+    <hyperlink ref="O39" r:id="rId22"/>
+    <hyperlink ref="O40" r:id="rId23"/>
+    <hyperlink ref="O41" r:id="rId24"/>
+    <hyperlink ref="O42" r:id="rId25" display="5-WP_Motor_Programming_Daniel_SmetankinV2"/>
+    <hyperlink ref="O46" r:id="rId26"/>
+    <hyperlink ref="O45" r:id="rId27"/>
+    <hyperlink ref="O58" r:id="rId28"/>
+    <hyperlink ref="O59" r:id="rId29"/>
+    <hyperlink ref="O61" r:id="rId30"/>
+    <hyperlink ref="D73" r:id="rId31"/>
+    <hyperlink ref="D74" r:id="rId32"/>
+    <hyperlink ref="D75" r:id="rId33"/>
+    <hyperlink ref="D76" r:id="rId34"/>
+    <hyperlink ref="O57" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
   <si>
     <t>startdatum</t>
   </si>
@@ -407,9 +407,6 @@
     <t>5-poweringOfNodeMCU-SS</t>
   </si>
   <si>
-    <t>212/03/2018</t>
-  </si>
-  <si>
     <t>Afterwork</t>
   </si>
   <si>
@@ -540,6 +537,9 @@
   </si>
   <si>
     <t>6-Asif Wasefi How to make a scientific poster</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +655,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1229,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1468,7 @@
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
       <c r="O10" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -1493,7 +1502,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -1527,7 +1536,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="40"/>
       <c r="O12" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -1561,7 +1570,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="40"/>
       <c r="O13" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -1662,7 +1671,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="40"/>
       <c r="O17" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -1697,7 +1706,7 @@
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1732,7 +1741,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1767,7 +1776,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1802,7 +1811,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="40"/>
       <c r="O21" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1852,7 +1861,7 @@
         <v>43173</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" s="39">
         <v>43166</v>
@@ -1866,7 +1875,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="40"/>
       <c r="O24" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1900,7 +1909,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="40"/>
       <c r="O25" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1934,7 +1943,7 @@
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
       <c r="O26" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -1970,7 +1979,7 @@
         <v>63</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -2005,7 +2014,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="14"/>
       <c r="O28" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -2072,7 +2081,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="38"/>
       <c r="O31" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -2092,7 +2101,7 @@
         <v>43180</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="39">
         <v>43173</v>
@@ -2107,7 +2116,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="38"/>
       <c r="O32" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2127,7 +2136,7 @@
         <v>43180</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="39">
         <v>43173</v>
@@ -2142,7 +2151,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="14"/>
       <c r="O33" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2174,15 +2183,15 @@
       <c r="M34" s="40"/>
       <c r="N34" s="14"/>
       <c r="O34" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>13</v>
+      <c r="E35" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F35" s="15">
         <v>43173</v>
@@ -2193,15 +2202,9 @@
       <c r="H35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="39">
-        <v>43173</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="24"/>
       <c r="M35" s="2"/>
       <c r="N35" s="14"/>
@@ -2258,7 +2261,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="14"/>
       <c r="O37" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -2293,7 +2296,7 @@
       <c r="M38" s="40"/>
       <c r="N38" s="14"/>
       <c r="O38" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -2428,7 +2431,7 @@
       <c r="M42" s="40"/>
       <c r="N42" s="14"/>
       <c r="O42" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -2501,7 +2504,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -2527,7 +2530,7 @@
       <c r="M46" s="40"/>
       <c r="N46" s="2"/>
       <c r="O46" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -2679,7 +2682,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -2695,7 +2698,7 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>13</v>
@@ -2714,7 +2717,7 @@
         <v>43222</v>
       </c>
       <c r="K56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -2725,7 +2728,7 @@
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>13</v>
@@ -2749,7 +2752,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="40"/>
       <c r="O57" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
@@ -2757,7 +2760,7 @@
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>13</v>
@@ -2781,12 +2784,12 @@
       <c r="M58" s="40"/>
       <c r="N58" s="40"/>
       <c r="O58" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>13</v>
@@ -2810,7 +2813,7 @@
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
       <c r="O59" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -2831,7 +2834,7 @@
         <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>13</v>
@@ -2851,7 +2854,7 @@
       <c r="M61" s="40"/>
       <c r="N61" s="40"/>
       <c r="O61" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -2938,7 +2941,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="15">
@@ -2948,7 +2951,7 @@
         <v>43236</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -2959,7 +2962,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="15">
@@ -2980,7 +2983,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="15">
@@ -2990,7 +2993,7 @@
         <v>43236</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -2998,7 +3001,7 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F70" s="15">
         <v>43229</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="41" t="s">
         <v>81</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -795,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +899,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -923,9 +926,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1238,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,21 +1265,21 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,27 +1299,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1341,28 +1342,28 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1538,6 +1539,7 @@
       <c r="O12" s="40" t="s">
         <v>112</v>
       </c>
+      <c r="P12" s="52"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
@@ -1639,7 +1641,7 @@
       <c r="N16" s="40"/>
       <c r="O16" s="37"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>21</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>22</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>23</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>24</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>25</v>
       </c>
@@ -1814,7 +1816,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1827,7 +1829,7 @@
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>26</v>
       </c>
@@ -1844,7 +1846,7 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="25">
         <v>27</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <v>28</v>
       </c>
@@ -1911,8 +1913,9 @@
       <c r="O25" s="40" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="52"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
         <v>29</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>30</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>31</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -2030,7 +2033,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="40"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>32</v>
       </c>
@@ -2049,7 +2052,7 @@
       <c r="N30" s="38"/>
       <c r="O30" s="40"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>33</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>34</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>35</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>66</v>
       </c>
@@ -2185,12 +2188,13 @@
       <c r="O34" s="40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="52"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="15">
@@ -2210,7 +2214,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="40"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>36</v>
       </c>
@@ -2229,7 +2233,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="40"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>37</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
         <v>38</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
         <v>39</v>
       </c>
@@ -2334,8 +2338,9 @@
       <c r="O39" s="40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="52"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
         <v>40</v>
       </c>
@@ -2369,8 +2374,9 @@
       <c r="O40" s="40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="52"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>68</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>72</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
         <v>50</v>
       </c>
@@ -2451,7 +2457,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="40"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <v>51</v>
       </c>
@@ -2481,7 +2487,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="40"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E45" s="16" t="s">
         <v>13</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E46" s="16" t="s">
         <v>13</v>
       </c>
@@ -2532,8 +2538,9 @@
       <c r="O46" s="40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="52"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2564,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -2567,7 +2574,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="25">
         <v>52</v>
       </c>
@@ -2583,7 +2590,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="25">
         <v>53</v>
       </c>
@@ -2604,7 +2611,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="25">
         <v>54</v>
       </c>
@@ -2625,7 +2632,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="25">
         <v>55</v>
       </c>
@@ -2646,7 +2653,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="25">
         <v>56</v>
       </c>
@@ -2667,7 +2674,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -2677,7 +2684,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="25">
         <v>57</v>
       </c>
@@ -2693,7 +2700,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="25">
         <v>58</v>
       </c>
@@ -2723,7 +2730,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="25">
         <v>59</v>
       </c>
@@ -2755,7 +2762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="25">
         <v>60</v>
       </c>
@@ -2786,8 +2793,9 @@
       <c r="O58" s="40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="52"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>78</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -2826,7 +2834,7 @@
       <c r="N60" s="40"/>
       <c r="O60" s="40"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="25">
         <v>61</v>
       </c>
@@ -2857,7 +2865,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="25">
         <v>62</v>
       </c>
@@ -2876,7 +2884,7 @@
       <c r="N62" s="40"/>
       <c r="O62" s="40"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="25">
         <v>63</v>
       </c>
@@ -2895,7 +2903,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="25">
         <v>64</v>
       </c>
@@ -3042,6 +3050,8 @@
       <c r="D75" s="41" t="s">
         <v>67</v>
       </c>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="42" t="s">

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
   <si>
     <t>startdatum</t>
   </si>
@@ -530,9 +530,6 @@
     <t>Ali Amir,Satish Singh</t>
   </si>
   <si>
-    <t>Gauthier de Borrekens, Asif Wasefi</t>
-  </si>
-  <si>
     <t>6-Ali Amir PosterProposition</t>
   </si>
   <si>
@@ -540,6 +537,12 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>7-Gauthier de Borrekens_poster_ideas</t>
+  </si>
+  <si>
+    <t>7-Asif Wasefi_poster_ideas</t>
   </si>
 </sst>
 </file>
@@ -902,6 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,7 +930,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1237,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P76"/>
+  <dimension ref="B1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,21 +1268,21 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,27 +1302,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1342,28 +1345,28 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1539,7 +1542,7 @@
       <c r="O12" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="52"/>
+      <c r="P12" s="44"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
@@ -1913,7 +1916,7 @@
       <c r="O25" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="52"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
@@ -2188,14 +2191,14 @@
       <c r="O34" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="P34" s="52"/>
+      <c r="P34" s="44"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="15">
         <v>43173</v>
@@ -2338,7 +2341,7 @@
       <c r="O39" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="P39" s="52"/>
+      <c r="P39" s="44"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
@@ -2374,7 +2377,7 @@
       <c r="O40" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="P40" s="52"/>
+      <c r="P40" s="44"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
@@ -2510,7 +2513,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2536,9 +2539,9 @@
       <c r="M46" s="40"/>
       <c r="N46" s="2"/>
       <c r="O46" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="P46" s="52"/>
+        <v>118</v>
+      </c>
+      <c r="P46" s="44"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
@@ -2793,7 +2796,7 @@
       <c r="O58" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="P58" s="52"/>
+      <c r="P58" s="44"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -2953,17 +2956,19 @@
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G67" s="15">
         <v>43229</v>
       </c>
-      <c r="G67" s="15">
-        <v>43236</v>
-      </c>
       <c r="H67" s="15" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" s="40" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="25">
@@ -2974,10 +2979,10 @@
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G68" s="15">
         <v>43229</v>
-      </c>
-      <c r="G68" s="15">
-        <v>43236</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>28</v>
@@ -2995,10 +3000,10 @@
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G69" s="15">
         <v>43229</v>
-      </c>
-      <c r="G69" s="15">
-        <v>43236</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>117</v>
@@ -3008,56 +3013,76 @@
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="25">
+        <v>69</v>
+      </c>
       <c r="D70" t="s">
         <v>89</v>
       </c>
       <c r="F70" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G70" s="15">
         <v>43229</v>
-      </c>
-      <c r="G70" s="15">
-        <v>43236</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C72" s="3" t="s">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G71" s="15">
+        <v>43229</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O71" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G72" s="39"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="G73" s="39"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D76" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C76" s="42" t="s">
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C77" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D77" s="41" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3104,15 +3129,17 @@
     <hyperlink ref="O58" r:id="rId28"/>
     <hyperlink ref="O59" r:id="rId29"/>
     <hyperlink ref="O61" r:id="rId30"/>
-    <hyperlink ref="D73" r:id="rId31"/>
-    <hyperlink ref="D74" r:id="rId32"/>
-    <hyperlink ref="D75" r:id="rId33"/>
-    <hyperlink ref="D76" r:id="rId34"/>
+    <hyperlink ref="D74" r:id="rId31"/>
+    <hyperlink ref="D75" r:id="rId32"/>
+    <hyperlink ref="D76" r:id="rId33"/>
+    <hyperlink ref="D77" r:id="rId34"/>
     <hyperlink ref="O57" r:id="rId35"/>
+    <hyperlink ref="O67" r:id="rId36"/>
+    <hyperlink ref="O71" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
-  <legacyDrawing r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
   <si>
     <t>startdatum</t>
   </si>
@@ -332,18 +332,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Correction</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Paperwork</t>
-  </si>
-  <si>
     <t>extreme fine tuning</t>
   </si>
   <si>
@@ -416,21 +404,9 @@
     <t>Lasercutting</t>
   </si>
   <si>
-    <t>Week9(25/04/2018)</t>
-  </si>
-  <si>
     <t>Report9</t>
   </si>
   <si>
-    <t>Poster+ideaFormulation</t>
-  </si>
-  <si>
-    <t>Lasercutter</t>
-  </si>
-  <si>
-    <t>SoftwareUpdates</t>
-  </si>
-  <si>
     <t>Inrushcurrent</t>
   </si>
   <si>
@@ -539,17 +515,77 @@
     <t>U</t>
   </si>
   <si>
-    <t>7-Gauthier de Borrekens_poster_ideas</t>
-  </si>
-  <si>
-    <t>7-Asif Wasefi_poster_ideas</t>
+    <t>Report7</t>
+  </si>
+  <si>
+    <t>7-Ali Amir_Lasercutter</t>
+  </si>
+  <si>
+    <t>7-Satish Singh_Poster+ideaFormulation</t>
+  </si>
+  <si>
+    <t>7-Gauthier de Borrekens_SoftwareUpdates</t>
+  </si>
+  <si>
+    <t>7-Daniel Smetankin_Inrushcurrent</t>
+  </si>
+  <si>
+    <t>8-Gauthier de Borrekens_poster_ideas</t>
+  </si>
+  <si>
+    <t>8-Asif Wasefi_poster_ideas</t>
+  </si>
+  <si>
+    <t>8-Daniel Smetankin_poster_design</t>
+  </si>
+  <si>
+    <t>There were a few documents needed to be corrected. For example converting to PDF, deleting tekst in Dutch, using the right template, … Not all the needed tasks have been done as of 09/05/2018. This task shall be delayed until next week.</t>
+  </si>
+  <si>
+    <t>Practical work which was completed by Satish and Ali</t>
+  </si>
+  <si>
+    <t>Week4(21/03/2018)</t>
+  </si>
+  <si>
+    <t>Week5(28/03/2018)</t>
+  </si>
+  <si>
+    <t>Report4</t>
+  </si>
+  <si>
+    <t>Report5</t>
+  </si>
+  <si>
+    <t>Report6</t>
+  </si>
+  <si>
+    <t>Report8</t>
+  </si>
+  <si>
+    <t>There is a pdf, which seems like a preparation. But there is no report of this date.</t>
+  </si>
+  <si>
+    <t>Week6(18/04/2018)</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Week7(18/04/2018)</t>
+  </si>
+  <si>
+    <t>Week8(02/05/2018)</t>
+  </si>
+  <si>
+    <t>Week9(09/05/2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,15 +664,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +693,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,7 +936,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,6 +964,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1240,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P77"/>
+  <dimension ref="B1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,27 +1301,27 @@
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" customWidth="1"/>
+    <col min="16" max="16" width="85.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,27 +1341,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1345,28 +1384,28 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1472,7 +1511,7 @@
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
       <c r="O10" s="40" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -1506,7 +1545,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -1540,9 +1579,9 @@
       <c r="M12" s="2"/>
       <c r="N12" s="40"/>
       <c r="O12" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="P12" s="44"/>
+        <v>104</v>
+      </c>
+      <c r="P12" s="52"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
@@ -1575,7 +1614,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="40"/>
       <c r="O13" s="40" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -1676,7 +1715,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="40"/>
       <c r="O17" s="40" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1711,7 +1750,7 @@
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1746,7 +1785,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1781,7 +1820,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1816,7 +1855,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="40"/>
       <c r="O21" s="40" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1866,7 +1905,7 @@
         <v>43173</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I24" s="39">
         <v>43166</v>
@@ -1880,7 +1919,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="40"/>
       <c r="O24" s="40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1914,9 +1953,9 @@
       <c r="M25" s="2"/>
       <c r="N25" s="40"/>
       <c r="O25" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="44"/>
+        <v>106</v>
+      </c>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
@@ -1949,7 +1988,7 @@
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
       <c r="O26" s="40" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -1982,10 +2021,10 @@
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -2020,7 +2059,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="14"/>
       <c r="O28" s="40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -2060,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>13</v>
@@ -2087,7 +2126,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="38"/>
       <c r="O31" s="40" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2095,7 +2134,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>13</v>
@@ -2107,7 +2146,7 @@
         <v>43180</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I32" s="39">
         <v>43173</v>
@@ -2122,7 +2161,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="38"/>
       <c r="O32" s="40" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2130,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>13</v>
@@ -2142,7 +2181,7 @@
         <v>43180</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I33" s="39">
         <v>43173</v>
@@ -2157,12 +2196,12 @@
       <c r="M33" s="2"/>
       <c r="N33" s="14"/>
       <c r="O33" s="40" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>13</v>
@@ -2189,16 +2228,16 @@
       <c r="M34" s="40"/>
       <c r="N34" s="14"/>
       <c r="O34" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="P34" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="P34" s="52"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>120</v>
+        <v>64</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="F35" s="15">
         <v>43173</v>
@@ -2241,7 +2280,7 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>13</v>
@@ -2268,7 +2307,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="14"/>
       <c r="O37" s="40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2276,7 +2315,7 @@
         <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>13</v>
@@ -2303,7 +2342,7 @@
       <c r="M38" s="40"/>
       <c r="N38" s="14"/>
       <c r="O38" s="40" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2312,7 +2351,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>13</v>
@@ -2339,16 +2378,16 @@
       <c r="M39" s="2"/>
       <c r="N39" s="14"/>
       <c r="O39" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="P39" s="44"/>
+        <v>71</v>
+      </c>
+      <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>13</v>
@@ -2375,13 +2414,13 @@
       <c r="M40" s="2"/>
       <c r="N40" s="14"/>
       <c r="O40" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="P40" s="44"/>
+        <v>71</v>
+      </c>
+      <c r="P40" s="52"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>13</v>
@@ -2408,12 +2447,12 @@
       <c r="M41" s="2"/>
       <c r="N41" s="14"/>
       <c r="O41" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>13</v>
@@ -2440,7 +2479,7 @@
       <c r="M42" s="40"/>
       <c r="N42" s="14"/>
       <c r="O42" s="40" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2513,7 +2552,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="40" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2539,9 +2578,9 @@
       <c r="M46" s="40"/>
       <c r="N46" s="2"/>
       <c r="O46" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="P46" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="P46" s="52"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
@@ -2692,7 +2731,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -2708,7 +2747,7 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>13</v>
@@ -2727,7 +2766,7 @@
         <v>43222</v>
       </c>
       <c r="K56" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -2738,7 +2777,7 @@
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>13</v>
@@ -2762,7 +2801,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="40"/>
       <c r="O57" s="40" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -2770,7 +2809,7 @@
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>13</v>
@@ -2794,13 +2833,16 @@
       <c r="M58" s="40"/>
       <c r="N58" s="40"/>
       <c r="O58" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P58" s="44"/>
+        <v>114</v>
+      </c>
+      <c r="P58" s="52"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="25">
+        <v>61</v>
+      </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>13</v>
@@ -2824,137 +2866,208 @@
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
       <c r="O59" s="40" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+      <c r="B60" s="25">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G60" s="15">
+        <v>43222</v>
+      </c>
       <c r="H60" s="15"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
+      <c r="I60" s="39">
+        <v>43215</v>
+      </c>
+      <c r="J60" s="39">
+        <v>43222</v>
+      </c>
+      <c r="K60" t="s">
+        <v>28</v>
+      </c>
       <c r="M60" s="40"/>
       <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
+      <c r="O60" s="40" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="25">
-        <v>61</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
-      <c r="I61" s="39">
-        <v>43215</v>
-      </c>
-      <c r="J61" s="39">
-        <v>43222</v>
-      </c>
-      <c r="K61" t="s">
-        <v>28</v>
-      </c>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
       <c r="M61" s="40"/>
       <c r="N61" s="40"/>
-      <c r="O61" s="40" t="s">
-        <v>85</v>
-      </c>
+      <c r="O61" s="40"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="25">
         <v>62</v>
       </c>
-      <c r="D62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G62" s="15">
-        <v>43229</v>
-      </c>
+      <c r="C62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="15"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="25">
         <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F63" s="15">
         <v>43222</v>
       </c>
       <c r="G63" s="15">
         <v>43229</v>
       </c>
-      <c r="H63" s="15"/>
+      <c r="H63" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="39">
+        <v>43222</v>
+      </c>
+      <c r="J63" s="39">
+        <v>43229</v>
+      </c>
+      <c r="K63" t="s">
+        <v>29</v>
+      </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P63" s="52"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="25">
         <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F64" s="15">
         <v>43222</v>
       </c>
       <c r="G64" s="15">
         <v>43229</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="39">
+        <v>43222</v>
+      </c>
+      <c r="J64" s="39">
+        <v>43229</v>
+      </c>
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="O64" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P64" s="52"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="25">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G65" s="15">
+        <v>43229</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" s="39">
+        <v>43222</v>
+      </c>
+      <c r="J65" s="39">
+        <v>43229</v>
+      </c>
+      <c r="K65" t="s">
+        <v>109</v>
+      </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="25">
-        <v>65</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G66" s="15">
+        <v>43229</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="25">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F67" s="15">
         <v>43222</v>
       </c>
@@ -2962,128 +3075,129 @@
         <v>43229</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="I67" s="39">
+        <v>43222</v>
+      </c>
+      <c r="J67" s="39">
+        <v>43229</v>
+      </c>
+      <c r="K67" t="s">
+        <v>38</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="25">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G68" s="15">
-        <v>43229</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="25">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G69" s="15">
-        <v>43229</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="25">
-        <v>69</v>
-      </c>
-      <c r="D70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G70" s="15">
-        <v>43229</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>86</v>
-      </c>
-      <c r="F71" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G71" s="15">
-        <v>43229</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O71" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P67" s="52"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="39"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="39"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C77" s="42" t="s">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>133</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>81</v>
+        <v>128</v>
+      </c>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3215,7 @@
   <hyperlinks>
     <hyperlink ref="O10" r:id="rId1" display="1-Gauthier-Levitation"/>
     <hyperlink ref="O11" r:id="rId2" display="1-Satish-RcCars"/>
-    <hyperlink ref="O12" r:id="rId3" display="1-Ali-SmartRoom"/>
+    <hyperlink ref="O12" r:id="rId3"/>
     <hyperlink ref="O13" r:id="rId4" display="1-Daniel-RFID"/>
     <hyperlink ref="O18" r:id="rId5" display="2-Gauthier-NodeMCU"/>
     <hyperlink ref="O19" r:id="rId6" display="2-Satish-Car"/>
@@ -3112,34 +3226,38 @@
     <hyperlink ref="O26" r:id="rId11" display="3_Satish_RCCarVsOtherCars"/>
     <hyperlink ref="O27" r:id="rId12" display="3_Asif_Server_OS_comparison"/>
     <hyperlink ref="O28" r:id="rId13" display="3_Gauthier_Different-Microcontrollers"/>
-    <hyperlink ref="O25" r:id="rId14" display="3_Ali_NodeMCU-programming"/>
+    <hyperlink ref="O25" r:id="rId14"/>
     <hyperlink ref="N27" r:id="rId15"/>
     <hyperlink ref="O31" r:id="rId16" display="4 Asif Server_connection_nodeMCU"/>
     <hyperlink ref="O32" r:id="rId17" display="4 Daniel WP_Motor_Programming"/>
     <hyperlink ref="O33" r:id="rId18" display="4 Gauthier21_03 ESP8266 Programming"/>
-    <hyperlink ref="O34" r:id="rId19" display="4 Ali NodeMCU-UDP"/>
+    <hyperlink ref="O34" r:id="rId19"/>
     <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency"/>
     <hyperlink ref="O38" r:id="rId21" display="5-Gauthier sonar ranging module"/>
     <hyperlink ref="O39" r:id="rId22"/>
-    <hyperlink ref="O40" r:id="rId23"/>
-    <hyperlink ref="O41" r:id="rId24"/>
-    <hyperlink ref="O42" r:id="rId25" display="5-WP_Motor_Programming_Daniel_SmetankinV2"/>
-    <hyperlink ref="O46" r:id="rId26"/>
-    <hyperlink ref="O45" r:id="rId27"/>
-    <hyperlink ref="O58" r:id="rId28"/>
-    <hyperlink ref="O59" r:id="rId29"/>
-    <hyperlink ref="O61" r:id="rId30"/>
-    <hyperlink ref="D74" r:id="rId31"/>
-    <hyperlink ref="D75" r:id="rId32"/>
-    <hyperlink ref="D76" r:id="rId33"/>
-    <hyperlink ref="D77" r:id="rId34"/>
-    <hyperlink ref="O57" r:id="rId35"/>
-    <hyperlink ref="O67" r:id="rId36"/>
-    <hyperlink ref="O71" r:id="rId37"/>
+    <hyperlink ref="O41" r:id="rId23"/>
+    <hyperlink ref="O42" r:id="rId24" display="5-WP_Motor_Programming_Daniel_SmetankinV2"/>
+    <hyperlink ref="O46" r:id="rId25"/>
+    <hyperlink ref="O45" r:id="rId26"/>
+    <hyperlink ref="O58" r:id="rId27"/>
+    <hyperlink ref="O59" r:id="rId28" display="SoftwareUpdates"/>
+    <hyperlink ref="O60" r:id="rId29" display="Inrushcurrent"/>
+    <hyperlink ref="D70" r:id="rId30"/>
+    <hyperlink ref="D71" r:id="rId31"/>
+    <hyperlink ref="D72" r:id="rId32"/>
+    <hyperlink ref="D76" r:id="rId33" display="Report9"/>
+    <hyperlink ref="O57" r:id="rId34" display="Poster+ideaFormulation"/>
+    <hyperlink ref="O63" r:id="rId35" display="7-Gauthier de Borrekens_poster_ideas"/>
+    <hyperlink ref="O67" r:id="rId36" display="7-Asif Wasefi_poster_ideas"/>
+    <hyperlink ref="D77" r:id="rId37" display="Report7"/>
+    <hyperlink ref="O40" r:id="rId38"/>
+    <hyperlink ref="O64" r:id="rId39"/>
+    <hyperlink ref="D73" r:id="rId40"/>
+    <hyperlink ref="D75" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
-  <legacyDrawing r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <legacyDrawing r:id="rId43"/>
 </worksheet>
 </file>
 

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="139">
   <si>
     <t>startdatum</t>
   </si>
@@ -572,13 +572,25 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>Week7(18/04/2018)</t>
-  </si>
-  <si>
     <t>Week8(02/05/2018)</t>
   </si>
   <si>
     <t>Week9(09/05/2018)</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>Asif</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Week7(25/04/2018)</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -940,35 +952,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1281,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="I52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,21 +1319,21 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,27 +1353,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1384,28 +1396,28 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1581,7 +1593,7 @@
       <c r="O12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="52"/>
+      <c r="P12" s="44"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
@@ -1955,7 +1967,7 @@
       <c r="O25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="P25" s="52"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
@@ -2230,7 +2242,7 @@
       <c r="O34" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="P34" s="52"/>
+      <c r="P34" s="44"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
@@ -2380,7 +2392,7 @@
       <c r="O39" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="52"/>
+      <c r="P39" s="44"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
@@ -2416,7 +2428,7 @@
       <c r="O40" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P40" s="52"/>
+      <c r="P40" s="44"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
@@ -2580,7 +2592,7 @@
       <c r="O46" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P46" s="52"/>
+      <c r="P46" s="44"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
@@ -2835,7 +2847,7 @@
       <c r="O58" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P58" s="52"/>
+      <c r="P58" s="44"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="25">
@@ -2958,7 +2970,7 @@
       <c r="O63" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P63" s="52"/>
+      <c r="P63" s="44"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="25">
@@ -2993,7 +3005,7 @@
       <c r="O64" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="P64" s="52"/>
+      <c r="P64" s="44"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="25">
@@ -3054,7 +3066,7 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="53" t="s">
+      <c r="P66" s="45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3091,7 +3103,7 @@
       <c r="O67" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="P67" s="52"/>
+      <c r="P67" s="44"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I68" s="39"/>
@@ -3110,8 +3122,11 @@
       <c r="D70" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
@@ -3120,10 +3135,13 @@
       <c r="D71" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
       <c r="G71" t="s">
         <v>131</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="105" x14ac:dyDescent="0.25">
@@ -3135,8 +3153,11 @@
       </c>
       <c r="E72" s="43"/>
       <c r="F72" s="43"/>
-      <c r="G72" s="53" t="s">
+      <c r="G72" s="45" t="s">
         <v>129</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -3146,8 +3167,11 @@
       <c r="D73" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="H73" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
@@ -3156,10 +3180,13 @@
       <c r="D74" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
       <c r="G74" t="s">
         <v>131</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -3169,32 +3196,41 @@
       <c r="D75" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="H75" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D76" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="H76" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="H77" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D78" t="s">
         <v>76</v>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="145">
   <si>
     <t>startdatum</t>
   </si>
@@ -563,9 +563,6 @@
     <t>Report8</t>
   </si>
   <si>
-    <t>There is a pdf, which seems like a preparation. But there is no report of this date.</t>
-  </si>
-  <si>
     <t>Week6(18/04/2018)</t>
   </si>
   <si>
@@ -591,6 +588,27 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>Satish</t>
+  </si>
+  <si>
+    <t>Programming incoming date from nodeMCU, write about server and connection in project report</t>
+  </si>
+  <si>
+    <t>write H-bridge in project report, development and design</t>
+  </si>
+  <si>
+    <t>write about program and sonar in project report</t>
+  </si>
+  <si>
+    <t>Analog mapping</t>
+  </si>
+  <si>
+    <t>Writing introduction project report and porting to future</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -845,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -951,7 +969,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1291,17 +1308,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P78"/>
+  <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="25"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
@@ -1319,21 +1336,21 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,27 +1370,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1396,28 +1413,28 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1593,7 +1610,7 @@
       <c r="O12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="44"/>
+      <c r="P12" s="43"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
@@ -1967,7 +1984,7 @@
       <c r="O25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="P25" s="44"/>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
@@ -2242,7 +2259,7 @@
       <c r="O34" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="P34" s="44"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
@@ -2392,7 +2409,7 @@
       <c r="O39" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="44"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
@@ -2428,7 +2445,7 @@
       <c r="O40" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P40" s="44"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
@@ -2592,7 +2609,7 @@
       <c r="O46" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P46" s="44"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
@@ -2847,7 +2864,7 @@
       <c r="O58" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P58" s="44"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="25">
@@ -2970,7 +2987,7 @@
       <c r="O63" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P63" s="44"/>
+      <c r="P63" s="43"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="25">
@@ -3005,7 +3022,7 @@
       <c r="O64" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="P64" s="44"/>
+      <c r="P64" s="43"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="25">
@@ -3066,7 +3083,7 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="45" t="s">
+      <c r="P66" s="44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3103,136 +3120,292 @@
       <c r="O67" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="P67" s="44"/>
+      <c r="P67" s="43"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E68" s="16"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="39"/>
       <c r="J68" s="39"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="43"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="25">
+        <v>68</v>
+      </c>
       <c r="C69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+    </row>
+    <row r="70" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="25">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G70" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="25">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G71" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="25">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G72" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="25">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G73" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="25">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G74" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="25">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G75" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="39"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="H70" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" t="s">
-        <v>131</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="H73" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" t="s">
-        <v>131</v>
-      </c>
-      <c r="H74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="H75" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="H76" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="H77" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="G77" s="39"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="H78" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D78" t="s">
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="H81" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="H83" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="H84" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="H85" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3278,18 +3451,18 @@
     <hyperlink ref="O58" r:id="rId27"/>
     <hyperlink ref="O59" r:id="rId28" display="SoftwareUpdates"/>
     <hyperlink ref="O60" r:id="rId29" display="Inrushcurrent"/>
-    <hyperlink ref="D70" r:id="rId30"/>
-    <hyperlink ref="D71" r:id="rId31"/>
-    <hyperlink ref="D72" r:id="rId32"/>
-    <hyperlink ref="D76" r:id="rId33" display="Report9"/>
+    <hyperlink ref="D78" r:id="rId30"/>
+    <hyperlink ref="D79" r:id="rId31"/>
+    <hyperlink ref="D80" r:id="rId32"/>
+    <hyperlink ref="D84" r:id="rId33" display="Report9"/>
     <hyperlink ref="O57" r:id="rId34" display="Poster+ideaFormulation"/>
     <hyperlink ref="O63" r:id="rId35" display="7-Gauthier de Borrekens_poster_ideas"/>
     <hyperlink ref="O67" r:id="rId36" display="7-Asif Wasefi_poster_ideas"/>
-    <hyperlink ref="D77" r:id="rId37" display="Report7"/>
+    <hyperlink ref="D85" r:id="rId37" display="Report7"/>
     <hyperlink ref="O40" r:id="rId38"/>
     <hyperlink ref="O64" r:id="rId39"/>
-    <hyperlink ref="D73" r:id="rId40"/>
-    <hyperlink ref="D75" r:id="rId41"/>
+    <hyperlink ref="D81" r:id="rId40"/>
+    <hyperlink ref="D83" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,8 +3066,8 @@
       <c r="D66" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="42" t="s">
-        <v>112</v>
+      <c r="E66" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F66" s="15">
         <v>43222</v>
@@ -3405,9 +3405,11 @@
       <c r="C86" t="s">
         <v>132</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="41" t="s">
         <v>76</v>
       </c>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3463,10 +3465,11 @@
     <hyperlink ref="O64" r:id="rId39"/>
     <hyperlink ref="D81" r:id="rId40"/>
     <hyperlink ref="D83" r:id="rId41"/>
+    <hyperlink ref="D86" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
-  <legacyDrawing r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <legacyDrawing r:id="rId44"/>
 </worksheet>
 </file>
 

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="145">
   <si>
     <t>startdatum</t>
   </si>
@@ -1001,7 +1001,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1022,9 +1022,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1062,7 +1062,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1134,7 +1134,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,6 +1542,7 @@
       <c r="O10" s="40" t="s">
         <v>93</v>
       </c>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
@@ -1576,6 +1577,7 @@
       <c r="O11" s="40" t="s">
         <v>83</v>
       </c>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="25">
@@ -1645,6 +1647,7 @@
       <c r="O13" s="40" t="s">
         <v>86</v>
       </c>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
@@ -1746,6 +1749,7 @@
       <c r="O17" s="40" t="s">
         <v>87</v>
       </c>
+      <c r="P17" s="45"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
@@ -1781,6 +1785,7 @@
       <c r="O18" s="40" t="s">
         <v>94</v>
       </c>
+      <c r="P18" s="43"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
@@ -1816,6 +1821,7 @@
       <c r="O19" s="40" t="s">
         <v>84</v>
       </c>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
@@ -1851,6 +1857,7 @@
       <c r="O20" s="40" t="s">
         <v>105</v>
       </c>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
@@ -1886,6 +1893,7 @@
       <c r="O21" s="40" t="s">
         <v>99</v>
       </c>
+      <c r="P21" s="43"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
@@ -2090,6 +2098,7 @@
       <c r="O28" s="40" t="s">
         <v>95</v>
       </c>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
@@ -2157,6 +2166,7 @@
       <c r="O31" s="40" t="s">
         <v>101</v>
       </c>
+      <c r="P31" s="43"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
@@ -2192,6 +2202,7 @@
       <c r="O32" s="40" t="s">
         <v>91</v>
       </c>
+      <c r="P32" s="45"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
@@ -2227,6 +2238,7 @@
       <c r="O33" s="40" t="s">
         <v>97</v>
       </c>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
@@ -3313,11 +3325,8 @@
       <c r="D79" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" t="s">
-        <v>130</v>
-      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
       <c r="H79" s="1" t="s">
         <v>137</v>
       </c>
@@ -3424,24 +3433,24 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O10" r:id="rId1" display="1-Gauthier-Levitation"/>
+    <hyperlink ref="O10" r:id="rId1"/>
     <hyperlink ref="O11" r:id="rId2" display="1-Satish-RcCars"/>
     <hyperlink ref="O12" r:id="rId3"/>
     <hyperlink ref="O13" r:id="rId4" display="1-Daniel-RFID"/>
-    <hyperlink ref="O18" r:id="rId5" display="2-Gauthier-NodeMCU"/>
+    <hyperlink ref="O18" r:id="rId5"/>
     <hyperlink ref="O19" r:id="rId6" display="2-Satish-Car"/>
     <hyperlink ref="O20" r:id="rId7" display="2-Ali-RadioControl"/>
-    <hyperlink ref="O21" r:id="rId8" display="2-Asif-Server"/>
+    <hyperlink ref="O21" r:id="rId8"/>
     <hyperlink ref="O17" r:id="rId9" display="2-Daniel-Connection"/>
     <hyperlink ref="O24" r:id="rId10" display="3_Daniel_different_comm_protocols"/>
     <hyperlink ref="O26" r:id="rId11" display="3_Satish_RCCarVsOtherCars"/>
     <hyperlink ref="O27" r:id="rId12" display="3_Asif_Server_OS_comparison"/>
-    <hyperlink ref="O28" r:id="rId13" display="3_Gauthier_Different-Microcontrollers"/>
+    <hyperlink ref="O28" r:id="rId13"/>
     <hyperlink ref="O25" r:id="rId14"/>
     <hyperlink ref="N27" r:id="rId15"/>
-    <hyperlink ref="O31" r:id="rId16" display="4 Asif Server_connection_nodeMCU"/>
+    <hyperlink ref="O31" r:id="rId16"/>
     <hyperlink ref="O32" r:id="rId17" display="4 Daniel WP_Motor_Programming"/>
-    <hyperlink ref="O33" r:id="rId18" display="4 Gauthier21_03 ESP8266 Programming"/>
+    <hyperlink ref="O33" r:id="rId18"/>
     <hyperlink ref="O34" r:id="rId19"/>
     <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency"/>
     <hyperlink ref="O38" r:id="rId21" display="5-Gauthier sonar ranging module"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="145">
   <si>
     <t>startdatum</t>
   </si>
@@ -1308,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P86"/>
+  <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="B66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,6 +3419,14 @@
       </c>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
+      <c r="H86" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif Wasefi\Documents\GitHub\Scientific-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safia\Documents\GitHub\Scientific-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C9E6C1-C0CD-4033-B793-942A28433E14}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>willy loockx</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="145">
   <si>
     <t>startdatum</t>
   </si>
@@ -608,13 +609,13 @@
     <t>Writing introduction project report and porting to future</t>
   </si>
   <si>
-    <t>G</t>
+    <t xml:space="preserve">Missing documents of Daniel Smetankin : RFID, Connection, different comm protocols. Missing documents of Satish Singh : RcCars, RcCarsVsOtherCars. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1024,7 +1025,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1062,7 +1063,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1097,6 +1098,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1132,9 +1150,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1307,11 +1342,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="G43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1856,7 @@
       <c r="O19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="45"/>
+      <c r="P19" s="43"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
@@ -1857,7 +1892,7 @@
       <c r="O20" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="45"/>
+      <c r="P20" s="43"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
@@ -1958,6 +1993,7 @@
       <c r="O24" s="40" t="s">
         <v>89</v>
       </c>
+      <c r="P24" s="45"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
@@ -2027,6 +2063,7 @@
       <c r="O26" s="40" t="s">
         <v>85</v>
       </c>
+      <c r="P26" s="45"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
@@ -2063,6 +2100,7 @@
       <c r="O27" s="40" t="s">
         <v>100</v>
       </c>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
@@ -2296,6 +2334,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="14"/>
       <c r="O35" s="40"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
@@ -2350,6 +2389,7 @@
       <c r="O37" s="40" t="s">
         <v>102</v>
       </c>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
@@ -2385,6 +2425,7 @@
       <c r="O38" s="40" t="s">
         <v>98</v>
       </c>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
@@ -2490,6 +2531,7 @@
       <c r="O41" s="40" t="s">
         <v>72</v>
       </c>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
@@ -2522,6 +2564,7 @@
       <c r="O42" s="40" t="s">
         <v>92</v>
       </c>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
@@ -2595,6 +2638,7 @@
       <c r="O45" s="40" t="s">
         <v>111</v>
       </c>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E46" s="16" t="s">
@@ -3164,8 +3208,8 @@
       <c r="D70" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>144</v>
+      <c r="E70" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="F70" s="15">
         <v>43229</v>
@@ -3187,8 +3231,8 @@
       <c r="D71" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>144</v>
+      <c r="E71" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F71" s="15">
         <v>43229</v>
@@ -3210,8 +3254,8 @@
       <c r="D72" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>144</v>
+      <c r="E72" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F72" s="15">
         <v>43229</v>
@@ -3224,6 +3268,7 @@
       </c>
       <c r="I72" s="39"/>
       <c r="J72" s="39"/>
+      <c r="P72" s="44"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="25">
@@ -3233,8 +3278,8 @@
       <c r="D73" t="s">
         <v>140</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>144</v>
+      <c r="E73" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F73" s="15">
         <v>43229</v>
@@ -3248,7 +3293,7 @@
       <c r="I73" s="39"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="25">
         <v>73</v>
       </c>
@@ -3256,8 +3301,8 @@
       <c r="D74" t="s">
         <v>141</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>144</v>
+      <c r="E74" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F74" s="15">
         <v>43229</v>
@@ -3271,15 +3316,15 @@
       <c r="I74" s="39"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="25">
         <v>74</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>144</v>
+      <c r="E75" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F75" s="15">
         <v>43229</v>
@@ -3292,6 +3337,9 @@
       </c>
       <c r="I75" s="39"/>
       <c r="J75" s="39"/>
+      <c r="P75" s="44" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F76" s="39"/>
@@ -3441,48 +3489,48 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O10" r:id="rId1"/>
-    <hyperlink ref="O11" r:id="rId2" display="1-Satish-RcCars"/>
-    <hyperlink ref="O12" r:id="rId3"/>
-    <hyperlink ref="O13" r:id="rId4" display="1-Daniel-RFID"/>
-    <hyperlink ref="O18" r:id="rId5"/>
-    <hyperlink ref="O19" r:id="rId6" display="2-Satish-Car"/>
-    <hyperlink ref="O20" r:id="rId7" display="2-Ali-RadioControl"/>
-    <hyperlink ref="O21" r:id="rId8"/>
-    <hyperlink ref="O17" r:id="rId9" display="2-Daniel-Connection"/>
-    <hyperlink ref="O24" r:id="rId10" display="3_Daniel_different_comm_protocols"/>
-    <hyperlink ref="O26" r:id="rId11" display="3_Satish_RCCarVsOtherCars"/>
-    <hyperlink ref="O27" r:id="rId12" display="3_Asif_Server_OS_comparison"/>
-    <hyperlink ref="O28" r:id="rId13"/>
-    <hyperlink ref="O25" r:id="rId14"/>
-    <hyperlink ref="N27" r:id="rId15"/>
-    <hyperlink ref="O31" r:id="rId16"/>
-    <hyperlink ref="O32" r:id="rId17" display="4 Daniel WP_Motor_Programming"/>
-    <hyperlink ref="O33" r:id="rId18"/>
-    <hyperlink ref="O34" r:id="rId19"/>
-    <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency"/>
-    <hyperlink ref="O38" r:id="rId21" display="5-Gauthier sonar ranging module"/>
-    <hyperlink ref="O39" r:id="rId22"/>
-    <hyperlink ref="O41" r:id="rId23"/>
-    <hyperlink ref="O42" r:id="rId24" display="5-WP_Motor_Programming_Daniel_SmetankinV2"/>
-    <hyperlink ref="O46" r:id="rId25"/>
-    <hyperlink ref="O45" r:id="rId26"/>
-    <hyperlink ref="O58" r:id="rId27"/>
-    <hyperlink ref="O59" r:id="rId28" display="SoftwareUpdates"/>
-    <hyperlink ref="O60" r:id="rId29" display="Inrushcurrent"/>
-    <hyperlink ref="D78" r:id="rId30"/>
-    <hyperlink ref="D79" r:id="rId31"/>
-    <hyperlink ref="D80" r:id="rId32"/>
-    <hyperlink ref="D84" r:id="rId33" display="Report9"/>
-    <hyperlink ref="O57" r:id="rId34" display="Poster+ideaFormulation"/>
-    <hyperlink ref="O63" r:id="rId35" display="7-Gauthier de Borrekens_poster_ideas"/>
-    <hyperlink ref="O67" r:id="rId36" display="7-Asif Wasefi_poster_ideas"/>
-    <hyperlink ref="D85" r:id="rId37" display="Report7"/>
-    <hyperlink ref="O40" r:id="rId38"/>
-    <hyperlink ref="O64" r:id="rId39"/>
-    <hyperlink ref="D81" r:id="rId40"/>
-    <hyperlink ref="D83" r:id="rId41"/>
-    <hyperlink ref="D86" r:id="rId42"/>
+    <hyperlink ref="O10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O11" r:id="rId2" display="1-Satish-RcCars" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O13" r:id="rId4" display="1-Daniel-RFID" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O17" r:id="rId9" display="2-Daniel-Connection" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O24" r:id="rId10" display="3_Daniel_different_comm_protocols" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O26" r:id="rId11" display="3_Satish_RCCarVsOtherCars" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="O31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O32" r:id="rId17" display="4 Daniel WP_Motor_Programming" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O38" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="O39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="O42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="O45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="O59" r:id="rId28" display="SoftwareUpdates" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O60" r:id="rId29" display="Inrushcurrent" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D78" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D79" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D80" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D84" r:id="rId33" display="Report9" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O57" r:id="rId34" display="Poster+ideaFormulation" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O63" r:id="rId35" display="7-Gauthier de Borrekens_poster_ideas" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O67" r:id="rId36" display="7-Asif Wasefi_poster_ideas" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D85" r:id="rId37" display="Report7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O64" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D81" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D83" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D86" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
@@ -3491,7 +3539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3503,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safia\Documents\GitHub\Scientific-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C9E6C1-C0CD-4033-B793-942A28433E14}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44987A-46B3-4172-B47E-508060BB0B98}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1612,7 @@
       <c r="O11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="45"/>
+      <c r="P11" s="43"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="25">
@@ -1682,7 +1682,7 @@
       <c r="O13" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="43"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
@@ -1784,7 +1784,7 @@
       <c r="O17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="43"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
@@ -1993,7 +1993,7 @@
       <c r="O24" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="45"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
@@ -2063,7 +2063,7 @@
       <c r="O26" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="P26" s="45"/>
+      <c r="P26" s="43"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
@@ -2240,7 +2240,7 @@
       <c r="O32" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="45"/>
+      <c r="P32" s="43"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
@@ -3490,22 +3490,22 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O11" r:id="rId2" display="1-Satish-RcCars" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="O12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O13" r:id="rId4" display="1-Daniel-RFID" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="O18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="O19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="O20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="O21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O17" r:id="rId9" display="2-Daniel-Connection" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O24" r:id="rId10" display="3_Daniel_different_comm_protocols" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O26" r:id="rId11" display="3_Satish_RCCarVsOtherCars" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="O27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="O28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="O25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="N27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="O31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O32" r:id="rId17" display="4 Daniel WP_Motor_Programming" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="O33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="O34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency" xr:uid="{00000000-0004-0000-0000-000013000000}"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safia\Documents\GitHub\Scientific-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasin\Documents\GitHub\Scientific-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44987A-46B3-4172-B47E-508060BB0B98}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>willy loockx</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="148">
   <si>
     <t>startdatum</t>
   </si>
@@ -611,12 +610,22 @@
   <si>
     <t xml:space="preserve">Missing documents of Daniel Smetankin : RFID, Connection, different comm protocols. Missing documents of Satish Singh : RcCars, RcCarsVsOtherCars. </t>
   </si>
+  <si>
+    <t>Wek10(16/05/2018)</t>
+  </si>
+  <si>
+    <t>Report10</t>
+  </si>
+  <si>
+    <t>No reports were made because of the termination of the project.
+In this period the administration, design of the poster and finishing the project report were the priority</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +699,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -864,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,6 +1014,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,7 +1047,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1063,7 +1085,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1098,23 +1120,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1150,26 +1155,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1342,11 +1330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M68" activeCellId="1" sqref="M77 M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,8 +3196,8 @@
       <c r="D70" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="42" t="s">
-        <v>112</v>
+      <c r="E70" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F70" s="15">
         <v>43229</v>
@@ -3220,8 +3208,15 @@
       <c r="H70" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
+      <c r="I70" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="25">
@@ -3243,8 +3238,13 @@
       <c r="H71" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
@@ -3266,8 +3266,13 @@
       <c r="H72" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
       <c r="P72" s="44"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -3290,8 +3295,13 @@
       <c r="H73" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
     </row>
     <row r="74" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="25">
@@ -3313,8 +3323,13 @@
       <c r="H74" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
     </row>
     <row r="75" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="25">
@@ -3335,8 +3350,13 @@
       <c r="H75" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
       <c r="P75" s="44" t="s">
         <v>144</v>
       </c>
@@ -3468,16 +3488,25 @@
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
       <c r="H86" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="H87" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="I70:O75"/>
     <mergeCell ref="C2:O2"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:K6"/>
@@ -3489,57 +3518,58 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="O31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="O33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O38" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="O39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="O42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="O45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="O59" r:id="rId28" display="SoftwareUpdates" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O60" r:id="rId29" display="Inrushcurrent" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D78" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D79" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D80" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D84" r:id="rId33" display="Report9" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O57" r:id="rId34" display="Poster+ideaFormulation" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O63" r:id="rId35" display="7-Gauthier de Borrekens_poster_ideas" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O67" r:id="rId36" display="7-Asif Wasefi_poster_ideas" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D85" r:id="rId37" display="Report7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O64" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D81" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D83" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D86" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O10" r:id="rId1"/>
+    <hyperlink ref="O11" r:id="rId2"/>
+    <hyperlink ref="O12" r:id="rId3"/>
+    <hyperlink ref="O13" r:id="rId4"/>
+    <hyperlink ref="O18" r:id="rId5"/>
+    <hyperlink ref="O19" r:id="rId6"/>
+    <hyperlink ref="O20" r:id="rId7"/>
+    <hyperlink ref="O21" r:id="rId8"/>
+    <hyperlink ref="O17" r:id="rId9"/>
+    <hyperlink ref="O24" r:id="rId10"/>
+    <hyperlink ref="O26" r:id="rId11"/>
+    <hyperlink ref="O27" r:id="rId12"/>
+    <hyperlink ref="O28" r:id="rId13"/>
+    <hyperlink ref="O25" r:id="rId14"/>
+    <hyperlink ref="N27" r:id="rId15"/>
+    <hyperlink ref="O31" r:id="rId16"/>
+    <hyperlink ref="O32" r:id="rId17"/>
+    <hyperlink ref="O33" r:id="rId18"/>
+    <hyperlink ref="O34" r:id="rId19"/>
+    <hyperlink ref="O37" r:id="rId20" display="5-Asif Measuring UDP latency"/>
+    <hyperlink ref="O38" r:id="rId21"/>
+    <hyperlink ref="O39" r:id="rId22"/>
+    <hyperlink ref="O41" r:id="rId23"/>
+    <hyperlink ref="O42" r:id="rId24"/>
+    <hyperlink ref="O46" r:id="rId25"/>
+    <hyperlink ref="O45" r:id="rId26"/>
+    <hyperlink ref="O58" r:id="rId27"/>
+    <hyperlink ref="O59" r:id="rId28" display="SoftwareUpdates"/>
+    <hyperlink ref="O60" r:id="rId29" display="Inrushcurrent"/>
+    <hyperlink ref="D78" r:id="rId30"/>
+    <hyperlink ref="D79" r:id="rId31"/>
+    <hyperlink ref="D80" r:id="rId32"/>
+    <hyperlink ref="D84" r:id="rId33" display="Report9"/>
+    <hyperlink ref="O57" r:id="rId34" display="Poster+ideaFormulation"/>
+    <hyperlink ref="O63" r:id="rId35" display="7-Gauthier de Borrekens_poster_ideas"/>
+    <hyperlink ref="O67" r:id="rId36" display="7-Asif Wasefi_poster_ideas"/>
+    <hyperlink ref="D85" r:id="rId37" display="Report7"/>
+    <hyperlink ref="O40" r:id="rId38"/>
+    <hyperlink ref="O64" r:id="rId39"/>
+    <hyperlink ref="D81" r:id="rId40"/>
+    <hyperlink ref="D83" r:id="rId41"/>
+    <hyperlink ref="D86" r:id="rId42"/>
+    <hyperlink ref="D87" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
-  <legacyDrawing r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <legacyDrawing r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3551,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="147">
   <si>
     <t>startdatum</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t>6-Asif Wasefi How to make a scientific poster</t>
-  </si>
-  <si>
-    <t>U</t>
   </si>
   <si>
     <t>Report7</t>
@@ -880,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -983,14 +980,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,12 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1333,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M68" activeCellId="1" sqref="M77 M68"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,21 +1353,21 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,27 +1387,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1436,28 +1430,28 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1565,7 +1559,7 @@
       <c r="O10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="43"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
@@ -1600,7 +1594,7 @@
       <c r="O11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="43"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="25">
@@ -1635,7 +1629,7 @@
       <c r="O12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="43"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
@@ -1670,7 +1664,7 @@
       <c r="O13" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
@@ -1772,7 +1766,7 @@
       <c r="O17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="43"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
@@ -1808,7 +1802,7 @@
       <c r="O18" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="43"/>
+      <c r="P18" s="42"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
@@ -1844,7 +1838,7 @@
       <c r="O19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="43"/>
+      <c r="P19" s="42"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
@@ -1880,7 +1874,7 @@
       <c r="O20" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="43"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
@@ -1916,7 +1910,7 @@
       <c r="O21" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="43"/>
+      <c r="P21" s="42"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
@@ -1981,7 +1975,7 @@
       <c r="O24" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="43"/>
+      <c r="P24" s="42"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
@@ -2016,7 +2010,7 @@
       <c r="O25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="P25" s="43"/>
+      <c r="P25" s="42"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
@@ -2051,7 +2045,7 @@
       <c r="O26" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="P26" s="43"/>
+      <c r="P26" s="42"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
@@ -2088,7 +2082,7 @@
       <c r="O27" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="P27" s="43"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
@@ -2124,7 +2118,7 @@
       <c r="O28" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="P28" s="43"/>
+      <c r="P28" s="42"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
@@ -2192,7 +2186,7 @@
       <c r="O31" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P31" s="43"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
@@ -2228,7 +2222,7 @@
       <c r="O32" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="43"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
@@ -2264,7 +2258,7 @@
       <c r="O33" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="P33" s="43"/>
+      <c r="P33" s="42"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
@@ -2297,24 +2291,13 @@
       <c r="O34" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="P34" s="43"/>
+      <c r="P34" s="42"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="15">
-        <v>43173</v>
-      </c>
-      <c r="G35" s="15">
-        <v>43180</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
       <c r="K35" s="1"/>
@@ -2322,7 +2305,6 @@
       <c r="M35" s="2"/>
       <c r="N35" s="14"/>
       <c r="O35" s="40"/>
-      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
@@ -2377,7 +2359,7 @@
       <c r="O37" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="P37" s="43"/>
+      <c r="P37" s="42"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
@@ -2413,7 +2395,7 @@
       <c r="O38" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="P38" s="43"/>
+      <c r="P38" s="42"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
@@ -2450,7 +2432,7 @@
       <c r="O39" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="43"/>
+      <c r="P39" s="42"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
@@ -2486,7 +2468,7 @@
       <c r="O40" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P40" s="43"/>
+      <c r="P40" s="42"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
@@ -2519,7 +2501,7 @@
       <c r="O41" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="P41" s="43"/>
+      <c r="P41" s="42"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
@@ -2552,7 +2534,7 @@
       <c r="O42" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="P42" s="43"/>
+      <c r="P42" s="42"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
@@ -2626,7 +2608,7 @@
       <c r="O45" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P45" s="43"/>
+      <c r="P45" s="42"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E46" s="16" t="s">
@@ -2653,7 +2635,7 @@
       <c r="O46" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P46" s="43"/>
+      <c r="P46" s="42"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E47" s="16" t="s">
@@ -2874,7 +2856,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="40"/>
       <c r="O57" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -2906,9 +2888,9 @@
       <c r="M58" s="40"/>
       <c r="N58" s="40"/>
       <c r="O58" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="P58" s="43"/>
+        <v>113</v>
+      </c>
+      <c r="P58" s="42"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="25">
@@ -2939,7 +2921,7 @@
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
       <c r="O59" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
@@ -2971,7 +2953,7 @@
       <c r="M60" s="40"/>
       <c r="N60" s="40"/>
       <c r="O60" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
@@ -3029,9 +3011,9 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="P63" s="43"/>
+        <v>117</v>
+      </c>
+      <c r="P63" s="42"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="25">
@@ -3064,9 +3046,9 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="P64" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="P64" s="42"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="25">
@@ -3100,7 +3082,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,8 +3109,8 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="44" t="s">
-        <v>121</v>
+      <c r="P66" s="43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3162,9 +3144,9 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="P67" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="P67" s="42"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E68" s="16"/>
@@ -3176,7 +3158,7 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="40"/>
-      <c r="P68" s="43"/>
+      <c r="P68" s="42"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="25">
@@ -3193,8 +3175,8 @@
         <v>69</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="44" t="s">
-        <v>139</v>
+      <c r="D70" s="43" t="s">
+        <v>138</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>13</v>
@@ -3208,15 +3190,15 @@
       <c r="H70" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I70" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
+      <c r="I70" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="25">
@@ -3224,7 +3206,7 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>13</v>
@@ -3238,13 +3220,13 @@
       <c r="H71" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
@@ -3252,7 +3234,7 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>13</v>
@@ -3266,14 +3248,14 @@
       <c r="H72" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="44"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="43"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="25">
@@ -3281,7 +3263,7 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>13</v>
@@ -3295,13 +3277,13 @@
       <c r="H73" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
     </row>
     <row r="74" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="25">
@@ -3309,7 +3291,7 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>13</v>
@@ -3323,13 +3305,13 @@
       <c r="H74" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
     </row>
     <row r="75" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="25">
@@ -3350,15 +3332,15 @@
       <c r="H75" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="44" t="s">
-        <v>144</v>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="43" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -3380,10 +3362,10 @@
       <c r="D78" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
       <c r="H78" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -3393,10 +3375,10 @@
       <c r="D79" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
       <c r="H79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -3406,102 +3388,102 @@
       <c r="D80" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="44"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="43"/>
       <c r="H80" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
+        <v>124</v>
+      </c>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
       <c r="H81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
+        <v>125</v>
+      </c>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
       <c r="G82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
+        <v>126</v>
+      </c>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
       <c r="H83" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
+        <v>112</v>
+      </c>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
       <c r="H84" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
+        <v>127</v>
+      </c>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
       <c r="H85" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D86" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
       <c r="H86" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D87" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
       <c r="H87" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
+++ b/SP_2018_03_06_CarToCarCommunicationRECENTST.xlsx
@@ -1328,7 +1328,7 @@
   <dimension ref="B1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
